--- a/OUTPUTS/TFR_PSL_Models.xlsx
+++ b/OUTPUTS/TFR_PSL_Models.xlsx
@@ -7,17 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="vif_test" r:id="rId3" sheetId="1"/>
-    <sheet name="model1_betas" r:id="rId4" sheetId="2"/>
-    <sheet name="model2_betas" r:id="rId5" sheetId="3"/>
-    <sheet name="model3_betas" r:id="rId6" sheetId="4"/>
-    <sheet name="model4_spatial_betas" r:id="rId7" sheetId="5"/>
-    <sheet name="model5_spatial_betas" r:id="rId8" sheetId="6"/>
+    <sheet name="model1_covs_betas" r:id="rId4" sheetId="2"/>
+    <sheet name="model2_xy_betas" r:id="rId5" sheetId="3"/>
+    <sheet name="model3_spatial_betas" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>VIF</t>
   </si>
@@ -40,7 +38,7 @@
     <t>pbf</t>
   </si>
   <si>
-    <t>educSecd.fem</t>
+    <t>educSecd_Terc.fem</t>
   </si>
   <si>
     <t>religPent</t>
@@ -53,6 +51,9 @@
   </si>
   <si>
     <t>share_adolbirths_2010</t>
+  </si>
+  <si>
+    <t>share_fem_politics</t>
   </si>
   <si>
     <t>x</t>
@@ -134,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.401306622480986</v>
+        <v>8.455258161316044</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -142,7 +143,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.5243589380393736</v>
+        <v>2.546866055870138</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -150,7 +151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.7438007515065044</v>
+        <v>1.7963772159596554</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -158,7 +159,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.224728162942768</v>
+        <v>1.2590441808972404</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -166,7 +167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14.467533925374779</v>
+        <v>15.893551063120047</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -174,7 +175,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.584612427130178</v>
+        <v>4.548318003234909</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -182,7 +183,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.227567614234607</v>
+        <v>2.1569769096280433</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -190,7 +191,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.183512756422144</v>
+        <v>2.1264047440407783</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -198,7 +199,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.8755925822651829</v>
+        <v>1.8300649450974364</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -206,7 +207,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.782289328857802</v>
+        <v>3.905874552867098</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -214,7 +215,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.0946398424634833</v>
+        <v>1.2438737177381383</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -222,10 +223,18 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.9262080050429775</v>
+        <v>3.15556924094568</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5.009274784989993</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -243,30 +252,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>3.2851</v>
+        <v>2.16506</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.50451</v>
+        <v>0.75298</v>
       </c>
     </row>
     <row r="3">
@@ -274,13 +283,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.05938</v>
+        <v>-0.08027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>0.63967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.50451</v>
+        <v>0.75298</v>
       </c>
     </row>
     <row r="4">
@@ -288,13 +297,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-24.64451</v>
+        <v>-1.53271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>0.42592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.50451</v>
+        <v>0.75298</v>
       </c>
     </row>
     <row r="5">
@@ -302,13 +311,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.5521</v>
+        <v>-4.04013</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.50451</v>
+        <v>0.75298</v>
       </c>
     </row>
     <row r="6">
@@ -316,13 +325,111 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0458</v>
+        <v>0.00931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01039</v>
+        <v>0.50814</v>
       </c>
       <c r="D6" t="n">
-        <v>0.50451</v>
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.18922</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0E-5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.97573</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.8E-4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.11973</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.69284</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.90015</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.33338</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.31563</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.62541</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.75298</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.06207</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.81638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.75298</v>
       </c>
     </row>
   </sheetData>
@@ -340,30 +447,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>3.16616</v>
+        <v>0.85409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>9.9E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="3">
@@ -371,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.13764</v>
+        <v>-0.3951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43999</v>
+        <v>0.01291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="4">
@@ -385,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.38729</v>
+        <v>2.48644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00538</v>
+        <v>0.16999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="5">
@@ -399,13 +506,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.43065</v>
+        <v>-0.62163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.37379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="6">
@@ -413,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00738</v>
+        <v>0.00898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.603</v>
+        <v>0.48252</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="7">
@@ -427,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.70042</v>
+        <v>1.39071</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="8">
@@ -441,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.66529</v>
+        <v>-1.21386</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="9">
@@ -455,13 +562,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.3547</v>
+        <v>0.25584</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>0.35874</v>
       </c>
       <c r="D9" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
       </c>
     </row>
     <row r="10">
@@ -469,13 +576,83 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.5701</v>
+        <v>-4.1917</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.72647</v>
+        <v>0.79699</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.25007</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.79699</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.12501</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.79699</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.09677</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.69507</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.79699</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.02639</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.79699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.00541</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04175</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.79699</v>
       </c>
     </row>
   </sheetData>
@@ -493,30 +670,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20558</v>
+        <v>1.40595</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75539</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +695,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08441</v>
+        <v>-0.81039</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6181</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.75539</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -538,13 +706,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.15642</v>
+        <v>-4.46866</v>
       </c>
       <c r="C4" t="n">
-        <v>0.25529</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.75539</v>
+        <v>0.03086</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +717,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.98595</v>
+        <v>-0.28701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75539</v>
+        <v>0.72705</v>
       </c>
     </row>
     <row r="6">
@@ -566,13 +728,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0073</v>
+        <v>-3.1E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.59654</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.75539</v>
+        <v>0.9751</v>
       </c>
     </row>
     <row r="7">
@@ -580,13 +739,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.27148</v>
+        <v>0.97938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.75539</v>
+        <v>1.3E-4</v>
       </c>
     </row>
     <row r="8">
@@ -594,13 +750,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.79085</v>
+        <v>-1.2621</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.75539</v>
       </c>
     </row>
     <row r="9">
@@ -608,13 +761,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.33324</v>
+        <v>-0.16183</v>
       </c>
       <c r="C9" t="n">
-        <v>0.27956</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.75539</v>
+        <v>0.57486</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +772,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.10258</v>
+        <v>-3.87529</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.75539</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +783,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.09008</v>
+        <v>-0.08648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.78831</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.75539</v>
+        <v>0.76738</v>
       </c>
     </row>
     <row r="12">
@@ -650,300 +794,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3.40388</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.75539</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.87224</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.95708</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.47271</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03183</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.15423</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.85294</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.01308</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.17105</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1.15189</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.42368</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.34464</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.21942</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-4.42133</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.03275</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.01235</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.8E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.51517</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.82437</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-4.33867</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03333</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.29622</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.71599</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.009</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.34527</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.96866</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.0E-5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.05501</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.04474</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.87646</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-4.01528</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.01411</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.96063</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.76985</v>
+        <v>1.78211</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -954,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.02981</v>
+        <v>0.28904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>0.13968</v>
       </c>
     </row>
     <row r="14">
@@ -965,10 +816,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01082</v>
+        <v>-0.03009</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00175</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0088</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0118</v>
       </c>
     </row>
   </sheetData>
